--- a/Entregáveis.xlsx
+++ b/Entregáveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Funcionário</t>
   </si>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD26"/>
+      <selection activeCell="B13" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -515,178 +515,191 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>2</v>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
+      <c r="A14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="1" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="C25" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="C26" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="C27" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="C28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="2" t="s">
-        <v>6</v>
+      <c r="C29" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="C30" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="C31" t="s">
-        <v>1</v>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="C32" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="C33" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="C36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="1" t="s">
+    <row r="39" spans="1:3">
+      <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="C38" t="s">
+    <row r="40" spans="1:3">
+      <c r="C40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="B40" s="1" t="s">
+    <row r="42" spans="1:3">
+      <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="C41" t="s">
+    <row r="43" spans="1:3">
+      <c r="C43" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="C42" t="s">
+    <row r="44" spans="1:3">
+      <c r="C44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="B46" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Entregáveis.xlsx
+++ b/Entregáveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Funcionário</t>
   </si>
@@ -98,6 +98,21 @@
   </si>
   <si>
     <t>Abas</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Moto/Carro/Caminhão/Carreta</t>
+  </si>
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>Capacidade</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -145,10 +160,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B12:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B28:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -456,254 +472,294 @@
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="1" t="s">
+    <row r="41" spans="1:3">
+      <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="C26" t="s">
+    <row r="42" spans="1:3">
+      <c r="C42" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="C32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="C43" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="C46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3">
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="B47" t="s">
+    <row r="63" spans="1:3">
+      <c r="B63" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="B48" t="s">
+    <row r="64" spans="1:3">
+      <c r="B64" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>